--- a/test-data/8-9월_용역자명단_간단.xlsx
+++ b/test-data/8-9월_용역자명단_간단.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AB3DE6-E32B-450E-A11B-DDF181DF25E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFAAB73-992B-4796-B750-4F33D3BC435B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21645" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="20940" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="용역자명단" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>순번</t>
   </si>
@@ -83,24 +83,6 @@
     <t>010-2345-6789</t>
   </si>
   <si>
-    <t>신한은행</t>
-  </si>
-  <si>
-    <t>김설계</t>
-  </si>
-  <si>
-    <t>010-1111-0002</t>
-  </si>
-  <si>
-    <t>연금보험</t>
-  </si>
-  <si>
-    <t>한화생명</t>
-  </si>
-  <si>
-    <t>강남지사</t>
-  </si>
-  <si>
     <t>박철수</t>
   </si>
   <si>
@@ -203,40 +185,8 @@
     <t>678901234567</t>
   </si>
   <si>
-    <t>조동현</t>
-  </si>
-  <si>
-    <t>010-7890-1234</t>
-  </si>
-  <si>
-    <t>881225-1890123</t>
-  </si>
-  <si>
-    <t>789012345678</t>
-  </si>
-  <si>
-    <t>윤지원</t>
-  </si>
-  <si>
-    <t>010-8901-2345</t>
-  </si>
-  <si>
-    <t>920718-2901234</t>
-  </si>
-  <si>
-    <t>890123456789</t>
-  </si>
-  <si>
-    <t>장민호</t>
-  </si>
-  <si>
-    <t>010-9012-3456</t>
-  </si>
-  <si>
-    <t>860830-1012345</t>
-  </si>
-  <si>
-    <t>901234567890</t>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -652,27 +602,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="12" width="20" customWidth="1"/>
-    <col min="13" max="14" width="15" customWidth="1"/>
+    <col min="2" max="4" width="15" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="13" width="20" customWidth="1"/>
+    <col min="14" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,43 +630,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -724,43 +677,46 @@
         <v>45872</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -768,43 +724,46 @@
         <v>45873</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -812,43 +771,46 @@
         <v>45874</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -856,172 +818,43 @@
         <v>45906</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45907</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>45908</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>45909</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
